--- a/excel/2242024.xlsx
+++ b/excel/2242024.xlsx
@@ -2579,7 +2579,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="D15" s="7" t="n"/>
+      <c r="D15" s="7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="E15" s="7" t="n"/>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="7" t="n"/>

--- a/excel/2242024.xlsx
+++ b/excel/2242024.xlsx
@@ -1292,14 +1292,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1355,15 +1359,11 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1991,8 +1991,8 @@
   </sheetPr>
   <dimension ref="A2:AU38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:K15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="94" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2020,60 +2020,60 @@
           <t xml:space="preserve">FEUILLE  DE  POINTAGE </t>
         </is>
       </c>
-      <c r="N2" s="91" t="n"/>
-      <c r="O2" s="91" t="n"/>
-      <c r="P2" s="91" t="n"/>
-      <c r="Q2" s="91" t="n"/>
-      <c r="R2" s="91" t="n"/>
-      <c r="S2" s="91" t="n"/>
-      <c r="T2" s="91" t="n"/>
-      <c r="U2" s="91" t="n"/>
-      <c r="V2" s="91" t="n"/>
-      <c r="W2" s="91" t="n"/>
-      <c r="X2" s="91" t="n"/>
-      <c r="Y2" s="91" t="n"/>
-      <c r="Z2" s="91" t="n"/>
-      <c r="AA2" s="91" t="n"/>
-      <c r="AB2" s="91" t="n"/>
+      <c r="N2" s="92" t="n"/>
+      <c r="O2" s="92" t="n"/>
+      <c r="P2" s="92" t="n"/>
+      <c r="Q2" s="92" t="n"/>
+      <c r="R2" s="92" t="n"/>
+      <c r="S2" s="92" t="n"/>
+      <c r="T2" s="92" t="n"/>
+      <c r="U2" s="92" t="n"/>
+      <c r="V2" s="92" t="n"/>
+      <c r="W2" s="92" t="n"/>
+      <c r="X2" s="92" t="n"/>
+      <c r="Y2" s="92" t="n"/>
+      <c r="Z2" s="92" t="n"/>
+      <c r="AA2" s="92" t="n"/>
+      <c r="AB2" s="92" t="n"/>
       <c r="AC2" s="86" t="n"/>
     </row>
     <row r="3" ht="22.5" customHeight="1" s="78">
       <c r="M3" s="87" t="n"/>
-      <c r="N3" s="92" t="n"/>
-      <c r="O3" s="92" t="n"/>
-      <c r="P3" s="92" t="n"/>
-      <c r="Q3" s="92" t="n"/>
-      <c r="R3" s="92" t="n"/>
-      <c r="S3" s="92" t="n"/>
-      <c r="T3" s="92" t="n"/>
-      <c r="U3" s="92" t="n"/>
-      <c r="V3" s="92" t="n"/>
-      <c r="W3" s="92" t="n"/>
-      <c r="X3" s="92" t="n"/>
-      <c r="Y3" s="92" t="n"/>
-      <c r="Z3" s="92" t="n"/>
-      <c r="AA3" s="92" t="n"/>
-      <c r="AB3" s="92" t="n"/>
+      <c r="N3" s="93" t="n"/>
+      <c r="O3" s="93" t="n"/>
+      <c r="P3" s="93" t="n"/>
+      <c r="Q3" s="93" t="n"/>
+      <c r="R3" s="93" t="n"/>
+      <c r="S3" s="93" t="n"/>
+      <c r="T3" s="93" t="n"/>
+      <c r="U3" s="93" t="n"/>
+      <c r="V3" s="93" t="n"/>
+      <c r="W3" s="93" t="n"/>
+      <c r="X3" s="93" t="n"/>
+      <c r="Y3" s="93" t="n"/>
+      <c r="Z3" s="93" t="n"/>
+      <c r="AA3" s="93" t="n"/>
+      <c r="AB3" s="93" t="n"/>
       <c r="AC3" s="76" t="n"/>
     </row>
     <row r="4" ht="27.6" customHeight="1" s="78">
       <c r="AC4" s="24" t="n"/>
       <c r="AD4" s="24" t="n"/>
       <c r="AE4" s="24" t="n"/>
-      <c r="AI4" s="94" t="inlineStr">
+      <c r="AI4" s="96" t="inlineStr">
         <is>
           <t xml:space="preserve">A N N E E </t>
         </is>
       </c>
       <c r="AN4" s="82" t="n"/>
-      <c r="AO4" s="110" t="n">
+      <c r="AO4" s="112" t="n">
         <v>2024</v>
       </c>
       <c r="AP4" s="71" t="n"/>
       <c r="AQ4" s="71" t="n"/>
       <c r="AR4" s="71" t="n"/>
       <c r="AS4" s="71" t="n"/>
-      <c r="AT4" s="96" t="n"/>
+      <c r="AT4" s="98" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1" s="78">
       <c r="A5" s="1" t="n"/>
@@ -2096,14 +2096,14 @@
       <c r="R5" s="1" t="n"/>
       <c r="S5" s="1" t="n"/>
       <c r="T5" s="1" t="n"/>
-      <c r="U5" s="97" t="inlineStr">
+      <c r="U5" s="99" t="inlineStr">
         <is>
           <t xml:space="preserve">Matricule </t>
         </is>
       </c>
-      <c r="V5" s="98" t="n"/>
-      <c r="W5" s="98" t="n"/>
-      <c r="X5" s="99" t="n"/>
+      <c r="V5" s="100" t="n"/>
+      <c r="W5" s="100" t="n"/>
+      <c r="X5" s="101" t="n"/>
       <c r="Y5" s="1" t="n"/>
       <c r="Z5" s="1" t="n"/>
       <c r="AA5" s="1" t="n"/>
@@ -2134,7 +2134,7 @@
           <t>Nom :</t>
         </is>
       </c>
-      <c r="B6" s="100" t="inlineStr">
+      <c r="B6" s="102" t="inlineStr">
         <is>
           <t>BLAL</t>
         </is>
@@ -2150,18 +2150,18 @@
       <c r="K6" s="71" t="n"/>
       <c r="L6" s="71" t="n"/>
       <c r="M6" s="71" t="n"/>
-      <c r="N6" s="96" t="n"/>
+      <c r="N6" s="98" t="n"/>
       <c r="Q6" s="77" t="n"/>
       <c r="R6" s="77" t="n"/>
       <c r="S6" s="77" t="n"/>
       <c r="T6" s="77" t="n"/>
-      <c r="U6" s="115" t="n">
+      <c r="U6" s="117" t="n">
         <v>224</v>
       </c>
-      <c r="V6" s="116" t="n"/>
-      <c r="W6" s="116" t="n"/>
+      <c r="V6" s="90" t="n"/>
+      <c r="W6" s="90" t="n"/>
       <c r="X6" s="80" t="n"/>
-      <c r="AB6" s="107" t="inlineStr">
+      <c r="AB6" s="109" t="inlineStr">
         <is>
           <t>Date Recrut.</t>
         </is>
@@ -2169,7 +2169,7 @@
       <c r="AG6" s="125" t="n"/>
       <c r="AH6" s="71" t="n"/>
       <c r="AI6" s="71" t="n"/>
-      <c r="AJ6" s="96" t="n"/>
+      <c r="AJ6" s="98" t="n"/>
       <c r="AK6" s="30" t="n"/>
     </row>
     <row r="7" ht="21" customHeight="1" s="78">
@@ -2178,7 +2178,7 @@
           <t>Prenom</t>
         </is>
       </c>
-      <c r="B7" s="100" t="inlineStr">
+      <c r="B7" s="102" t="inlineStr">
         <is>
           <t>Mustapha</t>
         </is>
@@ -2194,7 +2194,7 @@
       <c r="K7" s="71" t="n"/>
       <c r="L7" s="71" t="n"/>
       <c r="M7" s="71" t="n"/>
-      <c r="N7" s="96" t="n"/>
+      <c r="N7" s="98" t="n"/>
       <c r="AT7" s="69" t="n"/>
     </row>
     <row r="8" ht="15.6" customHeight="1" s="78">
@@ -2219,29 +2219,29 @@
       <c r="K8" s="71" t="n"/>
       <c r="L8" s="71" t="n"/>
       <c r="M8" s="71" t="n"/>
-      <c r="N8" s="96" t="n"/>
+      <c r="N8" s="98" t="n"/>
       <c r="P8" s="81" t="n"/>
       <c r="R8" s="82" t="n"/>
-      <c r="S8" s="95" t="n"/>
-      <c r="T8" s="96" t="n"/>
+      <c r="S8" s="97" t="n"/>
+      <c r="T8" s="98" t="n"/>
       <c r="U8" s="21" t="n"/>
       <c r="V8" s="81" t="n"/>
       <c r="W8" s="82" t="n"/>
-      <c r="X8" s="95" t="n"/>
-      <c r="Y8" s="96" t="n"/>
+      <c r="X8" s="97" t="n"/>
+      <c r="Y8" s="98" t="n"/>
       <c r="AB8" s="77" t="inlineStr">
         <is>
           <t>Date Detach.</t>
         </is>
       </c>
-      <c r="AG8" s="102" t="n"/>
-      <c r="AH8" s="98" t="n"/>
-      <c r="AI8" s="98" t="n"/>
-      <c r="AJ8" s="99" t="n"/>
+      <c r="AG8" s="104" t="n"/>
+      <c r="AH8" s="100" t="n"/>
+      <c r="AI8" s="100" t="n"/>
+      <c r="AJ8" s="101" t="n"/>
       <c r="AK8" s="31" t="n"/>
     </row>
     <row r="9" ht="12.75" customHeight="1" s="78">
-      <c r="AB9" s="111" t="inlineStr">
+      <c r="AB9" s="113" t="inlineStr">
         <is>
           <t>Affect. Origine :</t>
         </is>
@@ -2253,7 +2253,7 @@
       <c r="AJ9" s="71" t="n"/>
       <c r="AK9" s="71" t="n"/>
       <c r="AL9" s="71" t="n"/>
-      <c r="AM9" s="96" t="n"/>
+      <c r="AM9" s="98" t="n"/>
     </row>
     <row r="10" ht="12.75" customHeight="1" s="78">
       <c r="A10" s="2" t="inlineStr">
@@ -2283,26 +2283,26 @@
       <c r="U10" s="71" t="n"/>
       <c r="V10" s="71" t="n"/>
       <c r="W10" s="71" t="n"/>
-      <c r="X10" s="96" t="n"/>
+      <c r="X10" s="98" t="n"/>
       <c r="AB10" s="77" t="inlineStr">
         <is>
           <t>Sit. Fam.</t>
         </is>
       </c>
-      <c r="AG10" s="112" t="n"/>
-      <c r="AH10" s="113" t="n"/>
-      <c r="AI10" s="113" t="n"/>
-      <c r="AJ10" s="114" t="n"/>
+      <c r="AG10" s="114" t="n"/>
+      <c r="AH10" s="115" t="n"/>
+      <c r="AI10" s="115" t="n"/>
+      <c r="AJ10" s="116" t="n"/>
       <c r="AK10" s="32" t="n"/>
     </row>
     <row r="11" ht="12.75" customHeight="1" s="78">
-      <c r="AB11" s="107" t="inlineStr">
+      <c r="AB11" s="109" t="inlineStr">
         <is>
           <t>Nbrs Enfants :</t>
         </is>
       </c>
-      <c r="AG11" s="103" t="n"/>
-      <c r="AH11" s="96" t="n"/>
+      <c r="AG11" s="105" t="n"/>
+      <c r="AH11" s="98" t="n"/>
     </row>
     <row r="12" ht="12.75" customHeight="1" s="78">
       <c r="AG12" s="33" t="n"/>
@@ -2560,8 +2560,8 @@
         <f>COUNTIF($B14:$AF14,AS$13)</f>
         <v/>
       </c>
-      <c r="AT14" s="105" t="n"/>
-      <c r="AU14" s="106" t="n"/>
+      <c r="AT14" s="107" t="n"/>
+      <c r="AU14" s="108" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1" s="78">
       <c r="A15" s="9" t="inlineStr">
@@ -2584,14 +2584,46 @@
           <t>M</t>
         </is>
       </c>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="n"/>
-      <c r="H15" s="7" t="n"/>
-      <c r="I15" s="7" t="n"/>
-      <c r="J15" s="7" t="n"/>
-      <c r="K15" s="7" t="n"/>
-      <c r="L15" s="8" t="n"/>
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="H15" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="I15" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J15" s="7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K15" s="7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L15" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="M15" s="8" t="n"/>
       <c r="N15" s="8" t="n"/>
       <c r="O15" s="10" t="n"/>
@@ -3732,7 +3764,7 @@
       <c r="V26" s="14" t="n"/>
       <c r="W26" s="14" t="n"/>
       <c r="X26" s="14" t="n"/>
-      <c r="Y26" s="93" t="n"/>
+      <c r="Y26" s="95" t="n"/>
       <c r="AE26" s="14" t="n"/>
       <c r="AF26" s="14" t="n"/>
       <c r="AG26" s="62">
@@ -3800,23 +3832,23 @@
         </is>
       </c>
       <c r="C27" s="127" t="n"/>
-      <c r="D27" s="90" t="n"/>
-      <c r="E27" s="91" t="n"/>
-      <c r="F27" s="91" t="n"/>
-      <c r="G27" s="91" t="n"/>
-      <c r="H27" s="91" t="n"/>
-      <c r="I27" s="91" t="n"/>
+      <c r="D27" s="91" t="n"/>
+      <c r="E27" s="92" t="n"/>
+      <c r="F27" s="92" t="n"/>
+      <c r="G27" s="92" t="n"/>
+      <c r="H27" s="92" t="n"/>
+      <c r="I27" s="92" t="n"/>
       <c r="J27" s="86" t="n"/>
       <c r="M27" s="19" t="n"/>
     </row>
     <row r="28" ht="13.5" customHeight="1" s="78">
       <c r="C28" s="127" t="n"/>
       <c r="D28" s="87" t="n"/>
-      <c r="E28" s="92" t="n"/>
-      <c r="F28" s="92" t="n"/>
-      <c r="G28" s="92" t="n"/>
-      <c r="H28" s="92" t="n"/>
-      <c r="I28" s="92" t="n"/>
+      <c r="E28" s="93" t="n"/>
+      <c r="F28" s="93" t="n"/>
+      <c r="G28" s="93" t="n"/>
+      <c r="H28" s="93" t="n"/>
+      <c r="I28" s="93" t="n"/>
       <c r="J28" s="76" t="n"/>
       <c r="M28" s="123" t="n"/>
       <c r="N28" s="71" t="n"/>
@@ -3825,69 +3857,69 @@
       <c r="Q28" s="71" t="n"/>
       <c r="R28" s="71" t="n"/>
       <c r="S28" s="71" t="n"/>
-      <c r="T28" s="96" t="n"/>
-      <c r="V28" s="120" t="inlineStr">
+      <c r="T28" s="98" t="n"/>
+      <c r="V28" s="89" t="inlineStr">
         <is>
           <t>Dates</t>
         </is>
       </c>
-      <c r="W28" s="116" t="n"/>
-      <c r="X28" s="116" t="n"/>
+      <c r="W28" s="90" t="n"/>
+      <c r="X28" s="90" t="n"/>
       <c r="Y28" s="129" t="inlineStr">
         <is>
           <t xml:space="preserve">O B S E R V A T I O N S </t>
         </is>
       </c>
-      <c r="Z28" s="118" t="n"/>
-      <c r="AA28" s="118" t="n"/>
-      <c r="AB28" s="118" t="n"/>
-      <c r="AC28" s="118" t="n"/>
-      <c r="AD28" s="118" t="n"/>
-      <c r="AE28" s="118" t="n"/>
-      <c r="AF28" s="118" t="n"/>
-      <c r="AG28" s="118" t="n"/>
-      <c r="AH28" s="118" t="n"/>
-      <c r="AI28" s="118" t="n"/>
-      <c r="AJ28" s="118" t="n"/>
-      <c r="AK28" s="118" t="n"/>
-      <c r="AL28" s="118" t="n"/>
-      <c r="AM28" s="118" t="n"/>
-      <c r="AN28" s="118" t="n"/>
-      <c r="AO28" s="118" t="n"/>
-      <c r="AP28" s="118" t="n"/>
-      <c r="AQ28" s="118" t="n"/>
-      <c r="AR28" s="118" t="n"/>
-      <c r="AS28" s="118" t="n"/>
-      <c r="AT28" s="118" t="n"/>
-      <c r="AU28" s="106" t="n"/>
+      <c r="Z28" s="119" t="n"/>
+      <c r="AA28" s="119" t="n"/>
+      <c r="AB28" s="119" t="n"/>
+      <c r="AC28" s="119" t="n"/>
+      <c r="AD28" s="119" t="n"/>
+      <c r="AE28" s="119" t="n"/>
+      <c r="AF28" s="119" t="n"/>
+      <c r="AG28" s="119" t="n"/>
+      <c r="AH28" s="119" t="n"/>
+      <c r="AI28" s="119" t="n"/>
+      <c r="AJ28" s="119" t="n"/>
+      <c r="AK28" s="119" t="n"/>
+      <c r="AL28" s="119" t="n"/>
+      <c r="AM28" s="119" t="n"/>
+      <c r="AN28" s="119" t="n"/>
+      <c r="AO28" s="119" t="n"/>
+      <c r="AP28" s="119" t="n"/>
+      <c r="AQ28" s="119" t="n"/>
+      <c r="AR28" s="119" t="n"/>
+      <c r="AS28" s="119" t="n"/>
+      <c r="AT28" s="119" t="n"/>
+      <c r="AU28" s="108" t="n"/>
     </row>
     <row r="29" ht="13.5" customHeight="1" s="78">
       <c r="V29" s="132" t="n"/>
-      <c r="W29" s="118" t="n"/>
-      <c r="X29" s="118" t="n"/>
-      <c r="Y29" s="117" t="n"/>
-      <c r="Z29" s="118" t="n"/>
-      <c r="AA29" s="118" t="n"/>
-      <c r="AB29" s="118" t="n"/>
-      <c r="AC29" s="118" t="n"/>
-      <c r="AD29" s="118" t="n"/>
-      <c r="AE29" s="118" t="n"/>
-      <c r="AF29" s="118" t="n"/>
-      <c r="AG29" s="118" t="n"/>
-      <c r="AH29" s="118" t="n"/>
-      <c r="AI29" s="118" t="n"/>
-      <c r="AJ29" s="118" t="n"/>
-      <c r="AK29" s="118" t="n"/>
-      <c r="AL29" s="118" t="n"/>
-      <c r="AM29" s="118" t="n"/>
-      <c r="AN29" s="118" t="n"/>
-      <c r="AO29" s="118" t="n"/>
-      <c r="AP29" s="118" t="n"/>
-      <c r="AQ29" s="118" t="n"/>
-      <c r="AR29" s="118" t="n"/>
-      <c r="AS29" s="118" t="n"/>
-      <c r="AT29" s="118" t="n"/>
-      <c r="AU29" s="119" t="n"/>
+      <c r="W29" s="119" t="n"/>
+      <c r="X29" s="119" t="n"/>
+      <c r="Y29" s="118" t="n"/>
+      <c r="Z29" s="119" t="n"/>
+      <c r="AA29" s="119" t="n"/>
+      <c r="AB29" s="119" t="n"/>
+      <c r="AC29" s="119" t="n"/>
+      <c r="AD29" s="119" t="n"/>
+      <c r="AE29" s="119" t="n"/>
+      <c r="AF29" s="119" t="n"/>
+      <c r="AG29" s="119" t="n"/>
+      <c r="AH29" s="119" t="n"/>
+      <c r="AI29" s="119" t="n"/>
+      <c r="AJ29" s="119" t="n"/>
+      <c r="AK29" s="119" t="n"/>
+      <c r="AL29" s="119" t="n"/>
+      <c r="AM29" s="119" t="n"/>
+      <c r="AN29" s="119" t="n"/>
+      <c r="AO29" s="119" t="n"/>
+      <c r="AP29" s="119" t="n"/>
+      <c r="AQ29" s="119" t="n"/>
+      <c r="AR29" s="119" t="n"/>
+      <c r="AS29" s="119" t="n"/>
+      <c r="AT29" s="119" t="n"/>
+      <c r="AU29" s="120" t="n"/>
     </row>
     <row r="30" ht="13.5" customHeight="1" s="78">
       <c r="A30" s="88" t="inlineStr">
@@ -3910,11 +3942,11 @@
       <c r="O30" s="71" t="n"/>
       <c r="P30" s="71" t="n"/>
       <c r="Q30" s="71" t="n"/>
-      <c r="R30" s="96" t="n"/>
+      <c r="R30" s="98" t="n"/>
       <c r="V30" s="70" t="n"/>
       <c r="W30" s="71" t="n"/>
       <c r="X30" s="71" t="n"/>
-      <c r="Y30" s="104" t="inlineStr">
+      <c r="Y30" s="106" t="inlineStr">
         <is>
           <t xml:space="preserve">  PRISE  DE FONCTION </t>
         </is>
@@ -3985,7 +4017,7 @@
       <c r="J32" s="71" t="n"/>
       <c r="K32" s="71" t="n"/>
       <c r="L32" s="71" t="n"/>
-      <c r="M32" s="96" t="n"/>
+      <c r="M32" s="98" t="n"/>
       <c r="V32" s="70" t="n"/>
       <c r="W32" s="71" t="n"/>
       <c r="X32" s="71" t="n"/>
@@ -4053,12 +4085,12 @@
       <c r="AU33" s="73" t="n"/>
     </row>
     <row r="34" ht="19.5" customHeight="1" s="78">
-      <c r="B34" s="89" t="inlineStr">
+      <c r="B34" s="94" t="inlineStr">
         <is>
           <t>CR Avec IZCV</t>
         </is>
       </c>
-      <c r="H34" s="101" t="inlineStr">
+      <c r="H34" s="103" t="inlineStr">
         <is>
           <t>#REF!</t>
         </is>
@@ -4067,7 +4099,7 @@
       <c r="J34" s="20" t="n"/>
       <c r="K34" s="20" t="n"/>
       <c r="L34" s="20" t="n"/>
-      <c r="M34" s="89" t="inlineStr">
+      <c r="M34" s="94" t="inlineStr">
         <is>
           <t>CR Sans IZCV</t>
         </is>
@@ -4112,69 +4144,69 @@
         <v/>
       </c>
       <c r="I35" s="76" t="n"/>
-      <c r="J35" s="89" t="n"/>
-      <c r="K35" s="89" t="n"/>
-      <c r="L35" s="89" t="n"/>
+      <c r="J35" s="94" t="n"/>
+      <c r="K35" s="94" t="n"/>
+      <c r="L35" s="94" t="n"/>
       <c r="R35" s="22" t="n"/>
       <c r="S35" s="87" t="n"/>
       <c r="T35" s="76" t="n"/>
       <c r="V35" s="134" t="n"/>
-      <c r="W35" s="109" t="n"/>
-      <c r="X35" s="109" t="n"/>
-      <c r="Y35" s="108" t="n"/>
-      <c r="Z35" s="109" t="n"/>
-      <c r="AA35" s="109" t="n"/>
-      <c r="AB35" s="109" t="n"/>
-      <c r="AC35" s="109" t="n"/>
-      <c r="AD35" s="109" t="n"/>
-      <c r="AE35" s="109" t="n"/>
-      <c r="AF35" s="109" t="n"/>
-      <c r="AG35" s="109" t="n"/>
-      <c r="AH35" s="109" t="n"/>
-      <c r="AI35" s="109" t="n"/>
-      <c r="AJ35" s="109" t="n"/>
-      <c r="AK35" s="109" t="n"/>
-      <c r="AL35" s="109" t="n"/>
-      <c r="AM35" s="109" t="n"/>
-      <c r="AN35" s="109" t="n"/>
-      <c r="AO35" s="109" t="n"/>
-      <c r="AP35" s="109" t="n"/>
-      <c r="AQ35" s="109" t="n"/>
-      <c r="AR35" s="109" t="n"/>
-      <c r="AS35" s="109" t="n"/>
-      <c r="AT35" s="109" t="n"/>
+      <c r="W35" s="111" t="n"/>
+      <c r="X35" s="111" t="n"/>
+      <c r="Y35" s="110" t="n"/>
+      <c r="Z35" s="111" t="n"/>
+      <c r="AA35" s="111" t="n"/>
+      <c r="AB35" s="111" t="n"/>
+      <c r="AC35" s="111" t="n"/>
+      <c r="AD35" s="111" t="n"/>
+      <c r="AE35" s="111" t="n"/>
+      <c r="AF35" s="111" t="n"/>
+      <c r="AG35" s="111" t="n"/>
+      <c r="AH35" s="111" t="n"/>
+      <c r="AI35" s="111" t="n"/>
+      <c r="AJ35" s="111" t="n"/>
+      <c r="AK35" s="111" t="n"/>
+      <c r="AL35" s="111" t="n"/>
+      <c r="AM35" s="111" t="n"/>
+      <c r="AN35" s="111" t="n"/>
+      <c r="AO35" s="111" t="n"/>
+      <c r="AP35" s="111" t="n"/>
+      <c r="AQ35" s="111" t="n"/>
+      <c r="AR35" s="111" t="n"/>
+      <c r="AS35" s="111" t="n"/>
+      <c r="AT35" s="111" t="n"/>
       <c r="AU35" s="84" t="n"/>
     </row>
     <row r="36" ht="13.5" customHeight="1" s="78">
-      <c r="V36" s="107" t="n"/>
-      <c r="W36" s="107" t="n"/>
-      <c r="X36" s="107" t="n"/>
-      <c r="Y36" s="107" t="n"/>
-      <c r="Z36" s="107" t="n"/>
-      <c r="AA36" s="107" t="n"/>
-      <c r="AB36" s="107" t="n"/>
-      <c r="AC36" s="107" t="n"/>
-      <c r="AD36" s="107" t="n"/>
-      <c r="AE36" s="107" t="n"/>
-      <c r="AF36" s="107" t="n"/>
-      <c r="AG36" s="107" t="n"/>
-      <c r="AH36" s="107" t="n"/>
-      <c r="AI36" s="107" t="n"/>
-      <c r="AJ36" s="107" t="n"/>
-      <c r="AK36" s="107" t="n"/>
-      <c r="AL36" s="107" t="n"/>
-      <c r="AM36" s="107" t="n"/>
-      <c r="AN36" s="107" t="n"/>
-      <c r="AO36" s="107" t="n"/>
-      <c r="AP36" s="107" t="n"/>
-      <c r="AQ36" s="107" t="n"/>
-      <c r="AR36" s="107" t="n"/>
-      <c r="AS36" s="107" t="n"/>
-      <c r="AT36" s="107" t="n"/>
-      <c r="AU36" s="107" t="n"/>
+      <c r="V36" s="109" t="n"/>
+      <c r="W36" s="109" t="n"/>
+      <c r="X36" s="109" t="n"/>
+      <c r="Y36" s="109" t="n"/>
+      <c r="Z36" s="109" t="n"/>
+      <c r="AA36" s="109" t="n"/>
+      <c r="AB36" s="109" t="n"/>
+      <c r="AC36" s="109" t="n"/>
+      <c r="AD36" s="109" t="n"/>
+      <c r="AE36" s="109" t="n"/>
+      <c r="AF36" s="109" t="n"/>
+      <c r="AG36" s="109" t="n"/>
+      <c r="AH36" s="109" t="n"/>
+      <c r="AI36" s="109" t="n"/>
+      <c r="AJ36" s="109" t="n"/>
+      <c r="AK36" s="109" t="n"/>
+      <c r="AL36" s="109" t="n"/>
+      <c r="AM36" s="109" t="n"/>
+      <c r="AN36" s="109" t="n"/>
+      <c r="AO36" s="109" t="n"/>
+      <c r="AP36" s="109" t="n"/>
+      <c r="AQ36" s="109" t="n"/>
+      <c r="AR36" s="109" t="n"/>
+      <c r="AS36" s="109" t="n"/>
+      <c r="AT36" s="109" t="n"/>
+      <c r="AU36" s="109" t="n"/>
     </row>
     <row r="37" ht="12.75" customHeight="1" s="78">
-      <c r="N37" s="89" t="inlineStr">
+      <c r="N37" s="94" t="inlineStr">
         <is>
           <t>Autre ZONE</t>
         </is>
@@ -5176,9 +5208,9 @@
     <mergeCell ref="V30:X30"/>
     <mergeCell ref="X8:Y8"/>
     <mergeCell ref="N37:Q38"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="U5:X5"/>
     <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="B6:N6"/>
     <mergeCell ref="AT18:AU18"/>
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="H34:I34"/>

--- a/excel/2242024.xlsx
+++ b/excel/2242024.xlsx
@@ -15,7 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="50">
     <font>
       <name val="Arial"/>
@@ -1058,7 +1060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1261,25 +1263,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1289,21 +1287,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1345,11 +1347,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="2" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -1376,13 +1378,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="30" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -1405,6 +1407,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1991,8 +1996,8 @@
   </sheetPr>
   <dimension ref="A2:AU38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="94" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y31" sqref="Y31:AU31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2020,41 +2025,41 @@
           <t xml:space="preserve">FEUILLE  DE  POINTAGE </t>
         </is>
       </c>
-      <c r="N2" s="92" t="n"/>
-      <c r="O2" s="92" t="n"/>
-      <c r="P2" s="92" t="n"/>
-      <c r="Q2" s="92" t="n"/>
-      <c r="R2" s="92" t="n"/>
-      <c r="S2" s="92" t="n"/>
-      <c r="T2" s="92" t="n"/>
-      <c r="U2" s="92" t="n"/>
-      <c r="V2" s="92" t="n"/>
-      <c r="W2" s="92" t="n"/>
-      <c r="X2" s="92" t="n"/>
-      <c r="Y2" s="92" t="n"/>
-      <c r="Z2" s="92" t="n"/>
-      <c r="AA2" s="92" t="n"/>
-      <c r="AB2" s="92" t="n"/>
-      <c r="AC2" s="86" t="n"/>
+      <c r="N2" s="91" t="n"/>
+      <c r="O2" s="91" t="n"/>
+      <c r="P2" s="91" t="n"/>
+      <c r="Q2" s="91" t="n"/>
+      <c r="R2" s="91" t="n"/>
+      <c r="S2" s="91" t="n"/>
+      <c r="T2" s="91" t="n"/>
+      <c r="U2" s="91" t="n"/>
+      <c r="V2" s="91" t="n"/>
+      <c r="W2" s="91" t="n"/>
+      <c r="X2" s="91" t="n"/>
+      <c r="Y2" s="91" t="n"/>
+      <c r="Z2" s="91" t="n"/>
+      <c r="AA2" s="91" t="n"/>
+      <c r="AB2" s="91" t="n"/>
+      <c r="AC2" s="84" t="n"/>
     </row>
     <row r="3" ht="22.5" customHeight="1" s="78">
-      <c r="M3" s="87" t="n"/>
-      <c r="N3" s="93" t="n"/>
-      <c r="O3" s="93" t="n"/>
-      <c r="P3" s="93" t="n"/>
-      <c r="Q3" s="93" t="n"/>
-      <c r="R3" s="93" t="n"/>
-      <c r="S3" s="93" t="n"/>
-      <c r="T3" s="93" t="n"/>
-      <c r="U3" s="93" t="n"/>
-      <c r="V3" s="93" t="n"/>
-      <c r="W3" s="93" t="n"/>
-      <c r="X3" s="93" t="n"/>
-      <c r="Y3" s="93" t="n"/>
-      <c r="Z3" s="93" t="n"/>
-      <c r="AA3" s="93" t="n"/>
-      <c r="AB3" s="93" t="n"/>
-      <c r="AC3" s="76" t="n"/>
+      <c r="M3" s="85" t="n"/>
+      <c r="N3" s="92" t="n"/>
+      <c r="O3" s="92" t="n"/>
+      <c r="P3" s="92" t="n"/>
+      <c r="Q3" s="92" t="n"/>
+      <c r="R3" s="92" t="n"/>
+      <c r="S3" s="92" t="n"/>
+      <c r="T3" s="92" t="n"/>
+      <c r="U3" s="92" t="n"/>
+      <c r="V3" s="92" t="n"/>
+      <c r="W3" s="92" t="n"/>
+      <c r="X3" s="92" t="n"/>
+      <c r="Y3" s="92" t="n"/>
+      <c r="Z3" s="92" t="n"/>
+      <c r="AA3" s="92" t="n"/>
+      <c r="AB3" s="92" t="n"/>
+      <c r="AC3" s="75" t="n"/>
     </row>
     <row r="4" ht="27.6" customHeight="1" s="78">
       <c r="AC4" s="24" t="n"/>
@@ -2065,8 +2070,8 @@
           <t xml:space="preserve">A N N E E </t>
         </is>
       </c>
-      <c r="AN4" s="82" t="n"/>
-      <c r="AO4" s="112" t="n">
+      <c r="AN4" s="94" t="n"/>
+      <c r="AO4" s="113" t="n">
         <v>2024</v>
       </c>
       <c r="AP4" s="71" t="n"/>
@@ -2151,22 +2156,24 @@
       <c r="L6" s="71" t="n"/>
       <c r="M6" s="71" t="n"/>
       <c r="N6" s="98" t="n"/>
-      <c r="Q6" s="77" t="n"/>
-      <c r="R6" s="77" t="n"/>
-      <c r="S6" s="77" t="n"/>
-      <c r="T6" s="77" t="n"/>
+      <c r="Q6" s="88" t="n"/>
+      <c r="R6" s="88" t="n"/>
+      <c r="S6" s="88" t="n"/>
+      <c r="T6" s="88" t="n"/>
       <c r="U6" s="117" t="n">
         <v>224</v>
       </c>
-      <c r="V6" s="90" t="n"/>
-      <c r="W6" s="90" t="n"/>
-      <c r="X6" s="80" t="n"/>
+      <c r="V6" s="80" t="n"/>
+      <c r="W6" s="80" t="n"/>
+      <c r="X6" s="87" t="n"/>
       <c r="AB6" s="109" t="inlineStr">
         <is>
           <t>Date Recrut.</t>
         </is>
       </c>
-      <c r="AG6" s="125" t="n"/>
+      <c r="AG6" s="127" t="n">
+        <v>44896</v>
+      </c>
       <c r="AH6" s="71" t="n"/>
       <c r="AI6" s="71" t="n"/>
       <c r="AJ6" s="98" t="n"/>
@@ -2180,7 +2187,7 @@
       </c>
       <c r="B7" s="102" t="inlineStr">
         <is>
-          <t>Mustapha</t>
+          <t>MUSTAPHA</t>
         </is>
       </c>
       <c r="C7" s="71" t="n"/>
@@ -2205,7 +2212,7 @@
       </c>
       <c r="B8" s="128" t="inlineStr">
         <is>
-          <t>Operateur produit</t>
+          <t>Operateur Produit</t>
         </is>
       </c>
       <c r="C8" s="71" t="n"/>
@@ -2220,34 +2227,38 @@
       <c r="L8" s="71" t="n"/>
       <c r="M8" s="71" t="n"/>
       <c r="N8" s="98" t="n"/>
-      <c r="P8" s="81" t="n"/>
-      <c r="R8" s="82" t="n"/>
+      <c r="P8" s="93" t="n"/>
+      <c r="R8" s="94" t="n"/>
       <c r="S8" s="97" t="n"/>
       <c r="T8" s="98" t="n"/>
       <c r="U8" s="21" t="n"/>
-      <c r="V8" s="81" t="n"/>
-      <c r="W8" s="82" t="n"/>
+      <c r="V8" s="93" t="n"/>
+      <c r="W8" s="94" t="n"/>
       <c r="X8" s="97" t="n"/>
       <c r="Y8" s="98" t="n"/>
-      <c r="AB8" s="77" t="inlineStr">
+      <c r="AB8" s="88" t="inlineStr">
         <is>
           <t>Date Detach.</t>
         </is>
       </c>
-      <c r="AG8" s="104" t="n"/>
+      <c r="AG8" s="104" t="n">
+        <v>45329</v>
+      </c>
       <c r="AH8" s="100" t="n"/>
       <c r="AI8" s="100" t="n"/>
       <c r="AJ8" s="101" t="n"/>
       <c r="AK8" s="31" t="n"/>
     </row>
     <row r="9" ht="12.75" customHeight="1" s="78">
-      <c r="AB9" s="113" t="inlineStr">
+      <c r="AB9" s="112" t="inlineStr">
         <is>
           <t>Affect. Origine :</t>
         </is>
       </c>
-      <c r="AF9" s="82" t="n"/>
-      <c r="AG9" s="122" t="n"/>
+      <c r="AF9" s="94" t="n"/>
+      <c r="AG9" s="136" t="n">
+        <v>45327</v>
+      </c>
       <c r="AH9" s="71" t="n"/>
       <c r="AI9" s="71" t="n"/>
       <c r="AJ9" s="71" t="n"/>
@@ -2284,12 +2295,16 @@
       <c r="V10" s="71" t="n"/>
       <c r="W10" s="71" t="n"/>
       <c r="X10" s="98" t="n"/>
-      <c r="AB10" s="77" t="inlineStr">
+      <c r="AB10" s="88" t="inlineStr">
         <is>
           <t>Sit. Fam.</t>
         </is>
       </c>
-      <c r="AG10" s="114" t="n"/>
+      <c r="AG10" s="114" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="AH10" s="115" t="n"/>
       <c r="AI10" s="115" t="n"/>
       <c r="AJ10" s="116" t="n"/>
@@ -2301,7 +2316,9 @@
           <t>Nbrs Enfants :</t>
         </is>
       </c>
-      <c r="AG11" s="105" t="n"/>
+      <c r="AG11" s="105" t="n">
+        <v>3</v>
+      </c>
       <c r="AH11" s="98" t="n"/>
     </row>
     <row r="12" ht="12.75" customHeight="1" s="78">
@@ -2460,12 +2477,12 @@
           <t>Cr</t>
         </is>
       </c>
-      <c r="AT13" s="79" t="inlineStr">
+      <c r="AT13" s="86" t="inlineStr">
         <is>
           <t>Observ.</t>
         </is>
       </c>
-      <c r="AU13" s="80" t="n"/>
+      <c r="AU13" s="87" t="n"/>
     </row>
     <row r="14" ht="15" customHeight="1" s="78">
       <c r="A14" s="6" t="inlineStr">
@@ -2473,11 +2490,7 @@
           <t>Janvier</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
+      <c r="B14" s="7" t="n"/>
       <c r="C14" s="7" t="n"/>
       <c r="D14" s="7" t="n"/>
       <c r="E14" s="7" t="n"/>
@@ -2574,56 +2587,52 @@
           <t>T</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
+      <c r="C15" s="8" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="D15" s="7" t="inlineStr">
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="I15" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J15" s="8" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="E15" s="7" t="inlineStr">
+      <c r="K15" s="8" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="F15" s="7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I15" s="7" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="J15" s="7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K15" s="7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L15" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
+      <c r="L15" s="8" t="n"/>
       <c r="M15" s="8" t="n"/>
       <c r="N15" s="8" t="n"/>
       <c r="O15" s="10" t="n"/>
@@ -3441,156 +3450,36 @@
           <t>Novembre</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="C24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D24" s="8" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E24" s="8" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="J24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="K24" s="8" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L24" s="8" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="N24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="O24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="P24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="R24" s="8" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S24" s="8" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="U24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="W24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="X24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Y24" s="8" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Z24" s="8" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="AA24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
+      <c r="B24" s="8" t="n"/>
+      <c r="C24" s="8" t="n"/>
+      <c r="D24" s="8" t="n"/>
+      <c r="E24" s="8" t="n"/>
+      <c r="F24" s="8" t="n"/>
+      <c r="G24" s="8" t="n"/>
+      <c r="H24" s="8" t="n"/>
+      <c r="I24" s="8" t="n"/>
+      <c r="J24" s="8" t="n"/>
+      <c r="K24" s="8" t="n"/>
+      <c r="L24" s="8" t="n"/>
+      <c r="M24" s="8" t="n"/>
+      <c r="N24" s="8" t="n"/>
+      <c r="O24" s="8" t="n"/>
+      <c r="P24" s="8" t="n"/>
+      <c r="Q24" s="8" t="n"/>
+      <c r="R24" s="8" t="n"/>
+      <c r="S24" s="8" t="n"/>
+      <c r="T24" s="8" t="n"/>
+      <c r="U24" s="8" t="n"/>
+      <c r="V24" s="8" t="n"/>
+      <c r="W24" s="8" t="n"/>
+      <c r="X24" s="8" t="n"/>
+      <c r="Y24" s="8" t="n"/>
+      <c r="Z24" s="8" t="n"/>
+      <c r="AA24" s="8" t="n"/>
+      <c r="AB24" s="8" t="n"/>
+      <c r="AC24" s="8" t="n"/>
+      <c r="AD24" s="8" t="n"/>
+      <c r="AE24" s="8" t="n"/>
       <c r="AF24" s="29" t="n"/>
       <c r="AG24" s="48">
         <f>COUNTIF($B24:$AF24,AG$13)</f>
@@ -3736,8 +3625,8 @@
         <f>COUNTIF($B25:$AF25,AS$13)</f>
         <v/>
       </c>
-      <c r="AT25" s="83" t="n"/>
-      <c r="AU25" s="84" t="n"/>
+      <c r="AT25" s="81" t="n"/>
+      <c r="AU25" s="82" t="n"/>
     </row>
     <row r="26" ht="13.5" customHeight="1" s="78">
       <c r="A26" s="13" t="n"/>
@@ -3823,33 +3712,33 @@
         <f>AG26+AI26-AH26</f>
         <v/>
       </c>
-      <c r="AU26" s="76" t="n"/>
+      <c r="AU26" s="75" t="n"/>
     </row>
     <row r="27" ht="13.5" customHeight="1" s="78">
-      <c r="A27" s="126" t="inlineStr">
+      <c r="A27" s="125" t="inlineStr">
         <is>
           <t>Indemnité Route :</t>
         </is>
       </c>
-      <c r="C27" s="127" t="n"/>
-      <c r="D27" s="91" t="n"/>
-      <c r="E27" s="92" t="n"/>
-      <c r="F27" s="92" t="n"/>
-      <c r="G27" s="92" t="n"/>
-      <c r="H27" s="92" t="n"/>
-      <c r="I27" s="92" t="n"/>
-      <c r="J27" s="86" t="n"/>
+      <c r="C27" s="126" t="n"/>
+      <c r="D27" s="90" t="n"/>
+      <c r="E27" s="91" t="n"/>
+      <c r="F27" s="91" t="n"/>
+      <c r="G27" s="91" t="n"/>
+      <c r="H27" s="91" t="n"/>
+      <c r="I27" s="91" t="n"/>
+      <c r="J27" s="84" t="n"/>
       <c r="M27" s="19" t="n"/>
     </row>
     <row r="28" ht="13.5" customHeight="1" s="78">
-      <c r="C28" s="127" t="n"/>
-      <c r="D28" s="87" t="n"/>
-      <c r="E28" s="93" t="n"/>
-      <c r="F28" s="93" t="n"/>
-      <c r="G28" s="93" t="n"/>
-      <c r="H28" s="93" t="n"/>
-      <c r="I28" s="93" t="n"/>
-      <c r="J28" s="76" t="n"/>
+      <c r="C28" s="126" t="n"/>
+      <c r="D28" s="85" t="n"/>
+      <c r="E28" s="92" t="n"/>
+      <c r="F28" s="92" t="n"/>
+      <c r="G28" s="92" t="n"/>
+      <c r="H28" s="92" t="n"/>
+      <c r="I28" s="92" t="n"/>
+      <c r="J28" s="75" t="n"/>
       <c r="M28" s="123" t="n"/>
       <c r="N28" s="71" t="n"/>
       <c r="O28" s="71" t="n"/>
@@ -3858,13 +3747,13 @@
       <c r="R28" s="71" t="n"/>
       <c r="S28" s="71" t="n"/>
       <c r="T28" s="98" t="n"/>
-      <c r="V28" s="89" t="inlineStr">
+      <c r="V28" s="79" t="inlineStr">
         <is>
           <t>Dates</t>
         </is>
       </c>
-      <c r="W28" s="90" t="n"/>
-      <c r="X28" s="90" t="n"/>
+      <c r="W28" s="80" t="n"/>
+      <c r="X28" s="80" t="n"/>
       <c r="Y28" s="129" t="inlineStr">
         <is>
           <t xml:space="preserve">O B S E R V A T I O N S </t>
@@ -3894,10 +3783,18 @@
       <c r="AU28" s="108" t="n"/>
     </row>
     <row r="29" ht="13.5" customHeight="1" s="78">
-      <c r="V29" s="132" t="n"/>
+      <c r="V29" s="132" t="inlineStr">
+        <is>
+          <t>09-02</t>
+        </is>
+      </c>
       <c r="W29" s="119" t="n"/>
       <c r="X29" s="119" t="n"/>
-      <c r="Y29" s="118" t="n"/>
+      <c r="Y29" s="118" t="inlineStr">
+        <is>
+          <t>nice</t>
+        </is>
+      </c>
       <c r="Z29" s="119" t="n"/>
       <c r="AA29" s="119" t="n"/>
       <c r="AB29" s="119" t="n"/>
@@ -3922,7 +3819,7 @@
       <c r="AU29" s="120" t="n"/>
     </row>
     <row r="30" ht="13.5" customHeight="1" s="78">
-      <c r="A30" s="88" t="inlineStr">
+      <c r="A30" s="77" t="inlineStr">
         <is>
           <t>Kilometrage :</t>
         </is>
@@ -3946,11 +3843,7 @@
       <c r="V30" s="70" t="n"/>
       <c r="W30" s="71" t="n"/>
       <c r="X30" s="71" t="n"/>
-      <c r="Y30" s="106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  PRISE  DE FONCTION </t>
-        </is>
-      </c>
+      <c r="Y30" s="106" t="n"/>
       <c r="Z30" s="71" t="n"/>
       <c r="AA30" s="71" t="n"/>
       <c r="AB30" s="71" t="n"/>
@@ -3978,7 +3871,7 @@
       <c r="V31" s="70" t="n"/>
       <c r="W31" s="71" t="n"/>
       <c r="X31" s="71" t="n"/>
-      <c r="Y31" s="74" t="n"/>
+      <c r="Y31" s="76" t="n"/>
       <c r="Z31" s="71" t="n"/>
       <c r="AA31" s="71" t="n"/>
       <c r="AB31" s="71" t="n"/>
@@ -4003,7 +3896,7 @@
       <c r="AU31" s="73" t="n"/>
     </row>
     <row r="32" ht="13.5" customHeight="1" s="78">
-      <c r="A32" s="77" t="inlineStr">
+      <c r="A32" s="88" t="inlineStr">
         <is>
           <t xml:space="preserve">Nuisances </t>
         </is>
@@ -4021,7 +3914,7 @@
       <c r="V32" s="70" t="n"/>
       <c r="W32" s="71" t="n"/>
       <c r="X32" s="71" t="n"/>
-      <c r="Y32" s="74" t="n"/>
+      <c r="Y32" s="76" t="n"/>
       <c r="Z32" s="71" t="n"/>
       <c r="AA32" s="71" t="n"/>
       <c r="AB32" s="71" t="n"/>
@@ -4085,7 +3978,7 @@
       <c r="AU33" s="73" t="n"/>
     </row>
     <row r="34" ht="19.5" customHeight="1" s="78">
-      <c r="B34" s="94" t="inlineStr">
+      <c r="B34" s="89" t="inlineStr">
         <is>
           <t>CR Avec IZCV</t>
         </is>
@@ -4095,22 +3988,22 @@
           <t>#REF!</t>
         </is>
       </c>
-      <c r="I34" s="86" t="n"/>
+      <c r="I34" s="84" t="n"/>
       <c r="J34" s="20" t="n"/>
       <c r="K34" s="20" t="n"/>
       <c r="L34" s="20" t="n"/>
-      <c r="M34" s="94" t="inlineStr">
+      <c r="M34" s="89" t="inlineStr">
         <is>
           <t>CR Sans IZCV</t>
         </is>
       </c>
       <c r="R34" s="22" t="n"/>
-      <c r="S34" s="85" t="inlineStr">
+      <c r="S34" s="83" t="inlineStr">
         <is>
           <t>#REF!</t>
         </is>
       </c>
-      <c r="T34" s="86" t="n"/>
+      <c r="T34" s="84" t="n"/>
       <c r="V34" s="70" t="n"/>
       <c r="W34" s="71" t="n"/>
       <c r="X34" s="71" t="n"/>
@@ -4139,17 +4032,17 @@
       <c r="AU34" s="73" t="n"/>
     </row>
     <row r="35" ht="19.5" customHeight="1" s="78">
-      <c r="H35" s="75">
+      <c r="H35" s="74">
         <f>H34+AG26+AI26-AH26</f>
         <v/>
       </c>
-      <c r="I35" s="76" t="n"/>
-      <c r="J35" s="94" t="n"/>
-      <c r="K35" s="94" t="n"/>
-      <c r="L35" s="94" t="n"/>
+      <c r="I35" s="75" t="n"/>
+      <c r="J35" s="89" t="n"/>
+      <c r="K35" s="89" t="n"/>
+      <c r="L35" s="89" t="n"/>
       <c r="R35" s="22" t="n"/>
-      <c r="S35" s="87" t="n"/>
-      <c r="T35" s="76" t="n"/>
+      <c r="S35" s="85" t="n"/>
+      <c r="T35" s="75" t="n"/>
       <c r="V35" s="134" t="n"/>
       <c r="W35" s="111" t="n"/>
       <c r="X35" s="111" t="n"/>
@@ -4175,7 +4068,7 @@
       <c r="AR35" s="111" t="n"/>
       <c r="AS35" s="111" t="n"/>
       <c r="AT35" s="111" t="n"/>
-      <c r="AU35" s="84" t="n"/>
+      <c r="AU35" s="82" t="n"/>
     </row>
     <row r="36" ht="13.5" customHeight="1" s="78">
       <c r="V36" s="109" t="n"/>
@@ -4206,21 +4099,21 @@
       <c r="AU36" s="109" t="n"/>
     </row>
     <row r="37" ht="12.75" customHeight="1" s="78">
-      <c r="N37" s="94" t="inlineStr">
+      <c r="N37" s="89" t="inlineStr">
         <is>
           <t>Autre ZONE</t>
         </is>
       </c>
-      <c r="S37" s="85" t="inlineStr">
+      <c r="S37" s="83" t="inlineStr">
         <is>
           <t>#REF!</t>
         </is>
       </c>
-      <c r="T37" s="86" t="n"/>
+      <c r="T37" s="84" t="n"/>
     </row>
     <row r="38" ht="13.5" customHeight="1" s="78">
-      <c r="S38" s="87" t="n"/>
-      <c r="T38" s="76" t="n"/>
+      <c r="S38" s="85" t="n"/>
+      <c r="T38" s="75" t="n"/>
     </row>
     <row r="39" ht="12.75" customHeight="1" s="78"/>
     <row r="40" ht="12.75" customHeight="1" s="78"/>
@@ -5197,7 +5090,7 @@
     <mergeCell ref="AT25:AU25"/>
     <mergeCell ref="S34:T35"/>
     <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="Y32:AU32"/>
+    <mergeCell ref="H35:I35"/>
     <mergeCell ref="B34:F35"/>
     <mergeCell ref="D27:J28"/>
     <mergeCell ref="S37:T38"/>
@@ -5207,14 +5100,15 @@
     <mergeCell ref="AI4:AN4"/>
     <mergeCell ref="V30:X30"/>
     <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="U5:X5"/>
     <mergeCell ref="N37:Q38"/>
+    <mergeCell ref="AB10:AE10"/>
     <mergeCell ref="B6:N6"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="AB10:AE10"/>
     <mergeCell ref="AT18:AU18"/>
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="Y32:AU32"/>
     <mergeCell ref="AG11:AH11"/>
     <mergeCell ref="AT24:AU24"/>
     <mergeCell ref="V32:X32"/>
@@ -5224,8 +5118,8 @@
     <mergeCell ref="AB6:AE6"/>
     <mergeCell ref="Y35:AU35"/>
     <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AO4:AT4"/>
     <mergeCell ref="B7:N7"/>
-    <mergeCell ref="AO4:AT4"/>
     <mergeCell ref="AB9:AF9"/>
     <mergeCell ref="AG10:AJ10"/>
     <mergeCell ref="U6:X6"/>
@@ -5242,9 +5136,8 @@
     <mergeCell ref="AG6:AJ6"/>
     <mergeCell ref="A27:C28"/>
     <mergeCell ref="B10:X10"/>
+    <mergeCell ref="V33:X33"/>
     <mergeCell ref="M34:Q35"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="H35:I35"/>
     <mergeCell ref="Y28:AU28"/>
     <mergeCell ref="D32:M32"/>
     <mergeCell ref="AT26:AU26"/>
@@ -5275,7 +5168,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:AF14 B15:N15 B16:E25 F16:F18 F20:F25 G16:O25 P15:U25 V15:V18 V20:V25 W15:Z25 AA16:AA25 AB15:AF25">
+  <conditionalFormatting sqref="B14:AF14 B15:E23 B24:AF25 F15:F18 F20:F23 G15:N23 O16:O23 P15:U23 V15:V18 V20:V23 W15:Z23 AA16:AA23 AB15:AF23">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="2" stopIfTrue="1">
       <formula>"T"</formula>
     </cfRule>
